--- a/data/raw/WoodSupplier/may2018.xlsx
+++ b/data/raw/WoodSupplier/may2018.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="280">
   <si>
     <t>REGION</t>
   </si>
@@ -386,9 +386,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nipissing Forest </t>
-  </si>
-  <si>
-    <t>NORTHWEST REGION</t>
   </si>
   <si>
     <t xml:space="preserve">Chief Forester </t>
@@ -574,9 +571,6 @@
     <t>(807) 223-9257</t>
   </si>
   <si>
-    <t>SOUTHERN REGION</t>
-  </si>
-  <si>
     <t>jeff.leavey@algonquinforestry.on.ca</t>
   </si>
   <si>
@@ -608,9 +602,6 @@
   </si>
   <si>
     <t xml:space="preserve">christopher.clowater@ontario.ca </t>
-  </si>
-  <si>
-    <t>Ministry Contact</t>
   </si>
   <si>
     <t>Jeff Leavey</t>
@@ -1054,7 +1045,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1087,37 +1078,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -1281,43 +1241,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1748,78 +1671,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,51 +1736,75 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -1880,7 +1812,7 @@
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -1888,7 +1820,23 @@
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -1896,15 +1844,23 @@
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -1912,59 +1868,19 @@
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -1972,31 +1888,23 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -2330,2673 +2238,2673 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
-        <v>281</v>
+      <c r="A1" s="84" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="45" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="43"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:19" ht="16.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="53" t="s">
+      <c r="A3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="93" t="s">
+      <c r="R3" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="92" t="s">
+      <c r="S3" s="81" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="51">
         <v>-6000</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="51">
         <v>11000</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="51">
         <v>14000</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="51">
         <v>-50000</v>
       </c>
-      <c r="G4" s="62">
-        <v>0</v>
-      </c>
-      <c r="H4" s="62">
+      <c r="G4" s="51">
+        <v>0</v>
+      </c>
+      <c r="H4" s="51">
         <v>258000</v>
       </c>
-      <c r="I4" s="62">
-        <v>0</v>
-      </c>
-      <c r="J4" s="65">
+      <c r="I4" s="51">
+        <v>0</v>
+      </c>
+      <c r="J4" s="54">
         <v>227000</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="53">
         <v>17000</v>
       </c>
-      <c r="L4" s="62">
-        <v>0</v>
-      </c>
-      <c r="M4" s="62">
+      <c r="L4" s="51">
+        <v>0</v>
+      </c>
+      <c r="M4" s="51">
         <v>6000</v>
       </c>
-      <c r="N4" s="62">
+      <c r="N4" s="51">
         <v>88000</v>
       </c>
-      <c r="O4" s="62">
-        <v>0</v>
-      </c>
-      <c r="P4" s="62">
+      <c r="O4" s="51">
+        <v>0</v>
+      </c>
+      <c r="P4" s="51">
         <v>229000</v>
       </c>
-      <c r="Q4" s="62">
-        <v>0</v>
-      </c>
-      <c r="R4" s="63">
+      <c r="Q4" s="51">
+        <v>0</v>
+      </c>
+      <c r="R4" s="52">
         <v>340000</v>
       </c>
-      <c r="S4" s="86">
+      <c r="S4" s="75">
         <v>567000</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="55" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="62">
+      <c r="C5" s="51">
         <v>21000</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="51">
         <v>4000</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="51">
         <v>1000</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="51">
         <v>2000</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="51">
         <v>4000</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="51">
         <v>31000</v>
       </c>
-      <c r="I5" s="62">
+      <c r="I5" s="51">
         <v>57000</v>
       </c>
-      <c r="J5" s="65">
+      <c r="J5" s="54">
         <v>120000</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="53">
         <v>25000</v>
       </c>
-      <c r="L5" s="62">
-        <v>0</v>
-      </c>
-      <c r="M5" s="62">
-        <v>0</v>
-      </c>
-      <c r="N5" s="62">
+      <c r="L5" s="51">
+        <v>0</v>
+      </c>
+      <c r="M5" s="51">
+        <v>0</v>
+      </c>
+      <c r="N5" s="51">
         <v>10000</v>
       </c>
-      <c r="O5" s="62">
-        <v>0</v>
-      </c>
-      <c r="P5" s="62">
+      <c r="O5" s="51">
+        <v>0</v>
+      </c>
+      <c r="P5" s="51">
         <v>27000</v>
       </c>
-      <c r="Q5" s="62">
+      <c r="Q5" s="51">
         <v>47000</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="52">
         <v>109000</v>
       </c>
-      <c r="S5" s="86">
+      <c r="S5" s="75">
         <v>229000</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="62">
+      <c r="C6" s="51">
         <v>37000</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="51">
         <v>5000</v>
       </c>
-      <c r="E6" s="62">
-        <v>0</v>
-      </c>
-      <c r="F6" s="62">
+      <c r="E6" s="51">
+        <v>0</v>
+      </c>
+      <c r="F6" s="51">
         <v>152000</v>
       </c>
-      <c r="G6" s="62">
-        <v>0</v>
-      </c>
-      <c r="H6" s="62">
-        <v>0</v>
-      </c>
-      <c r="I6" s="62">
-        <v>0</v>
-      </c>
-      <c r="J6" s="65">
+      <c r="G6" s="51">
+        <v>0</v>
+      </c>
+      <c r="H6" s="51">
+        <v>0</v>
+      </c>
+      <c r="I6" s="51">
+        <v>0</v>
+      </c>
+      <c r="J6" s="54">
         <v>194000</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="53">
         <v>13000</v>
       </c>
-      <c r="L6" s="62">
-        <v>0</v>
-      </c>
-      <c r="M6" s="62">
-        <v>0</v>
-      </c>
-      <c r="N6" s="62">
+      <c r="L6" s="51">
+        <v>0</v>
+      </c>
+      <c r="M6" s="51">
+        <v>0</v>
+      </c>
+      <c r="N6" s="51">
         <v>40000</v>
       </c>
-      <c r="O6" s="62">
-        <v>0</v>
-      </c>
-      <c r="P6" s="62">
+      <c r="O6" s="51">
+        <v>0</v>
+      </c>
+      <c r="P6" s="51">
         <v>59000</v>
       </c>
-      <c r="Q6" s="62">
-        <v>0</v>
-      </c>
-      <c r="R6" s="63">
+      <c r="Q6" s="51">
+        <v>0</v>
+      </c>
+      <c r="R6" s="52">
         <v>112000</v>
       </c>
-      <c r="S6" s="86">
+      <c r="S6" s="75">
         <v>306000</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="54" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="51">
         <v>38000</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="51">
         <v>14000</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="51">
         <v>76000</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="51">
         <v>260000</v>
       </c>
-      <c r="G7" s="62">
-        <v>0</v>
-      </c>
-      <c r="H7" s="62">
+      <c r="G7" s="51">
+        <v>0</v>
+      </c>
+      <c r="H7" s="51">
         <v>93000</v>
       </c>
-      <c r="I7" s="62">
-        <v>0</v>
-      </c>
-      <c r="J7" s="65">
+      <c r="I7" s="51">
+        <v>0</v>
+      </c>
+      <c r="J7" s="54">
         <v>481000</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="53">
         <v>13000</v>
       </c>
-      <c r="L7" s="62">
+      <c r="L7" s="51">
         <v>1000</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="51">
         <v>21000</v>
       </c>
-      <c r="N7" s="62">
+      <c r="N7" s="51">
         <v>79000</v>
       </c>
-      <c r="O7" s="62">
-        <v>0</v>
-      </c>
-      <c r="P7" s="62">
+      <c r="O7" s="51">
+        <v>0</v>
+      </c>
+      <c r="P7" s="51">
         <v>174000</v>
       </c>
-      <c r="Q7" s="62">
-        <v>0</v>
-      </c>
-      <c r="R7" s="63">
+      <c r="Q7" s="51">
+        <v>0</v>
+      </c>
+      <c r="R7" s="52">
         <v>288000</v>
       </c>
-      <c r="S7" s="86">
+      <c r="S7" s="75">
         <v>769000</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="51">
         <v>14000</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="51">
         <v>12000</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="51">
         <v>14000</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="51">
         <v>222000</v>
       </c>
-      <c r="G8" s="62">
-        <v>0</v>
-      </c>
-      <c r="H8" s="62">
+      <c r="G8" s="51">
+        <v>0</v>
+      </c>
+      <c r="H8" s="51">
         <v>37000</v>
       </c>
-      <c r="I8" s="62">
-        <v>0</v>
-      </c>
-      <c r="J8" s="65">
+      <c r="I8" s="51">
+        <v>0</v>
+      </c>
+      <c r="J8" s="54">
         <v>299000</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="53">
         <v>5000</v>
       </c>
-      <c r="L8" s="62">
-        <v>0</v>
-      </c>
-      <c r="M8" s="62">
+      <c r="L8" s="51">
+        <v>0</v>
+      </c>
+      <c r="M8" s="51">
         <v>4000</v>
       </c>
-      <c r="N8" s="62">
+      <c r="N8" s="51">
         <v>44000</v>
       </c>
-      <c r="O8" s="62">
-        <v>0</v>
-      </c>
-      <c r="P8" s="62">
+      <c r="O8" s="51">
+        <v>0</v>
+      </c>
+      <c r="P8" s="51">
         <v>146000</v>
       </c>
-      <c r="Q8" s="62">
-        <v>0</v>
-      </c>
-      <c r="R8" s="63">
+      <c r="Q8" s="51">
+        <v>0</v>
+      </c>
+      <c r="R8" s="52">
         <v>199000</v>
       </c>
-      <c r="S8" s="86">
+      <c r="S8" s="75">
         <v>498000</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="51">
         <v>3000</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="51">
         <v>1000</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="51">
         <v>1000</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="51">
         <v>5000</v>
       </c>
-      <c r="G9" s="62">
-        <v>0</v>
-      </c>
-      <c r="H9" s="62">
-        <v>0</v>
-      </c>
-      <c r="I9" s="62">
-        <v>0</v>
-      </c>
-      <c r="J9" s="65">
+      <c r="G9" s="51">
+        <v>0</v>
+      </c>
+      <c r="H9" s="51">
+        <v>0</v>
+      </c>
+      <c r="I9" s="51">
+        <v>0</v>
+      </c>
+      <c r="J9" s="54">
         <v>10000</v>
       </c>
-      <c r="K9" s="64">
+      <c r="K9" s="53">
         <v>7000</v>
       </c>
-      <c r="L9" s="62">
-        <v>0</v>
-      </c>
-      <c r="M9" s="62">
-        <v>0</v>
-      </c>
-      <c r="N9" s="62">
+      <c r="L9" s="51">
+        <v>0</v>
+      </c>
+      <c r="M9" s="51">
+        <v>0</v>
+      </c>
+      <c r="N9" s="51">
         <v>14000</v>
       </c>
-      <c r="O9" s="62">
-        <v>0</v>
-      </c>
-      <c r="P9" s="62">
+      <c r="O9" s="51">
+        <v>0</v>
+      </c>
+      <c r="P9" s="51">
         <v>19000</v>
       </c>
-      <c r="Q9" s="62">
-        <v>0</v>
-      </c>
-      <c r="R9" s="63">
+      <c r="Q9" s="51">
+        <v>0</v>
+      </c>
+      <c r="R9" s="52">
         <v>40000</v>
       </c>
-      <c r="S9" s="86">
+      <c r="S9" s="75">
         <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="51">
         <v>53000</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="51">
         <v>21000</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="51">
         <v>14000</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="51">
         <v>26000</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="51">
         <v>8000</v>
       </c>
-      <c r="H10" s="62">
-        <v>0</v>
-      </c>
-      <c r="I10" s="62">
+      <c r="H10" s="51">
+        <v>0</v>
+      </c>
+      <c r="I10" s="51">
         <v>4000</v>
       </c>
-      <c r="J10" s="65">
+      <c r="J10" s="54">
         <v>126000</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="53">
         <v>29000</v>
       </c>
-      <c r="L10" s="62">
+      <c r="L10" s="51">
         <v>1000</v>
       </c>
-      <c r="M10" s="62">
+      <c r="M10" s="51">
         <v>3000</v>
       </c>
-      <c r="N10" s="62">
+      <c r="N10" s="51">
         <v>44000</v>
       </c>
-      <c r="O10" s="62">
-        <v>0</v>
-      </c>
-      <c r="P10" s="62">
+      <c r="O10" s="51">
+        <v>0</v>
+      </c>
+      <c r="P10" s="51">
         <v>85000</v>
       </c>
-      <c r="Q10" s="62">
-        <v>0</v>
-      </c>
-      <c r="R10" s="63">
+      <c r="Q10" s="51">
+        <v>0</v>
+      </c>
+      <c r="R10" s="52">
         <v>162000</v>
       </c>
-      <c r="S10" s="86">
+      <c r="S10" s="75">
         <v>288000</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="51">
         <v>1000</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="51">
         <v>4000</v>
       </c>
-      <c r="E11" s="62">
-        <v>0</v>
-      </c>
-      <c r="F11" s="62">
-        <v>0</v>
-      </c>
-      <c r="G11" s="62">
-        <v>0</v>
-      </c>
-      <c r="H11" s="62">
-        <v>0</v>
-      </c>
-      <c r="I11" s="62">
-        <v>0</v>
-      </c>
-      <c r="J11" s="65">
+      <c r="E11" s="51">
+        <v>0</v>
+      </c>
+      <c r="F11" s="51">
+        <v>0</v>
+      </c>
+      <c r="G11" s="51">
+        <v>0</v>
+      </c>
+      <c r="H11" s="51">
+        <v>0</v>
+      </c>
+      <c r="I11" s="51">
+        <v>0</v>
+      </c>
+      <c r="J11" s="54">
         <v>5000</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="53">
         <v>4000</v>
       </c>
-      <c r="L11" s="62">
-        <v>0</v>
-      </c>
-      <c r="M11" s="62">
+      <c r="L11" s="51">
+        <v>0</v>
+      </c>
+      <c r="M11" s="51">
         <v>2000</v>
       </c>
-      <c r="N11" s="62">
+      <c r="N11" s="51">
         <v>34000</v>
       </c>
-      <c r="O11" s="62">
-        <v>0</v>
-      </c>
-      <c r="P11" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="62">
-        <v>0</v>
-      </c>
-      <c r="R11" s="63">
+      <c r="O11" s="51">
+        <v>0</v>
+      </c>
+      <c r="P11" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="51">
+        <v>0</v>
+      </c>
+      <c r="R11" s="52">
         <v>40000</v>
       </c>
-      <c r="S11" s="86">
+      <c r="S11" s="75">
         <v>45000</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="51">
         <v>56000</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="51">
         <v>3000</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="51">
         <v>13000</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="51">
         <v>37000</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="51">
         <v>47000</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="51">
         <v>153000</v>
       </c>
-      <c r="I12" s="62">
+      <c r="I12" s="51">
         <v>56000</v>
       </c>
-      <c r="J12" s="65">
+      <c r="J12" s="54">
         <v>365000</v>
       </c>
-      <c r="K12" s="64">
+      <c r="K12" s="53">
         <v>37000</v>
       </c>
-      <c r="L12" s="62">
-        <v>0</v>
-      </c>
-      <c r="M12" s="62">
+      <c r="L12" s="51">
+        <v>0</v>
+      </c>
+      <c r="M12" s="51">
         <v>2000</v>
       </c>
-      <c r="N12" s="62">
+      <c r="N12" s="51">
         <v>33000</v>
       </c>
-      <c r="O12" s="62">
+      <c r="O12" s="51">
         <v>14000</v>
       </c>
-      <c r="P12" s="62">
+      <c r="P12" s="51">
         <v>43000</v>
       </c>
-      <c r="Q12" s="62">
+      <c r="Q12" s="51">
         <v>28000</v>
       </c>
-      <c r="R12" s="63">
+      <c r="R12" s="52">
         <v>157000</v>
       </c>
-      <c r="S12" s="86">
+      <c r="S12" s="75">
         <v>522000</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="54" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="51">
         <v>37000</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="51">
         <v>5000</v>
       </c>
-      <c r="E13" s="62">
+      <c r="E13" s="51">
         <v>7000</v>
       </c>
-      <c r="F13" s="62">
+      <c r="F13" s="51">
         <v>70000</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="51">
         <v>22000</v>
       </c>
-      <c r="H13" s="62">
-        <v>0</v>
-      </c>
-      <c r="I13" s="62">
+      <c r="H13" s="51">
+        <v>0</v>
+      </c>
+      <c r="I13" s="51">
         <v>60000</v>
       </c>
-      <c r="J13" s="65">
+      <c r="J13" s="54">
         <v>201000</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="53">
         <v>20000</v>
       </c>
-      <c r="L13" s="62">
-        <v>0</v>
-      </c>
-      <c r="M13" s="62">
+      <c r="L13" s="51">
+        <v>0</v>
+      </c>
+      <c r="M13" s="51">
         <v>1000</v>
       </c>
-      <c r="N13" s="62">
+      <c r="N13" s="51">
         <v>32000</v>
       </c>
-      <c r="O13" s="62">
+      <c r="O13" s="51">
         <v>5000</v>
       </c>
-      <c r="P13" s="62">
+      <c r="P13" s="51">
         <v>34000</v>
       </c>
-      <c r="Q13" s="62">
+      <c r="Q13" s="51">
         <v>14000</v>
       </c>
-      <c r="R13" s="63">
+      <c r="R13" s="52">
         <v>106000</v>
       </c>
-      <c r="S13" s="86">
+      <c r="S13" s="75">
         <v>307000</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="51">
         <v>47000</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="51">
         <v>1000</v>
       </c>
-      <c r="E14" s="62">
-        <v>0</v>
-      </c>
-      <c r="F14" s="62">
+      <c r="E14" s="51">
+        <v>0</v>
+      </c>
+      <c r="F14" s="51">
         <v>78000</v>
       </c>
-      <c r="G14" s="62">
-        <v>0</v>
-      </c>
-      <c r="H14" s="62">
+      <c r="G14" s="51">
+        <v>0</v>
+      </c>
+      <c r="H14" s="51">
         <v>8000</v>
       </c>
-      <c r="I14" s="62">
-        <v>0</v>
-      </c>
-      <c r="J14" s="65">
+      <c r="I14" s="51">
+        <v>0</v>
+      </c>
+      <c r="J14" s="54">
         <v>134000</v>
       </c>
-      <c r="K14" s="64">
+      <c r="K14" s="53">
         <v>20000</v>
       </c>
-      <c r="L14" s="62">
-        <v>0</v>
-      </c>
-      <c r="M14" s="62">
-        <v>0</v>
-      </c>
-      <c r="N14" s="62">
+      <c r="L14" s="51">
+        <v>0</v>
+      </c>
+      <c r="M14" s="51">
+        <v>0</v>
+      </c>
+      <c r="N14" s="51">
         <v>20000</v>
       </c>
-      <c r="O14" s="62">
-        <v>0</v>
-      </c>
-      <c r="P14" s="62">
+      <c r="O14" s="51">
+        <v>0</v>
+      </c>
+      <c r="P14" s="51">
         <v>60000</v>
       </c>
-      <c r="Q14" s="62">
-        <v>0</v>
-      </c>
-      <c r="R14" s="63">
+      <c r="Q14" s="51">
+        <v>0</v>
+      </c>
+      <c r="R14" s="52">
         <v>100000</v>
       </c>
-      <c r="S14" s="86">
+      <c r="S14" s="75">
         <v>234000</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="51">
         <v>44000</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="51">
         <v>22000</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="51">
         <v>8000</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="51">
         <v>66000</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="51">
         <v>1000</v>
       </c>
-      <c r="H15" s="62">
-        <v>0</v>
-      </c>
-      <c r="I15" s="62">
-        <v>0</v>
-      </c>
-      <c r="J15" s="65">
+      <c r="H15" s="51">
+        <v>0</v>
+      </c>
+      <c r="I15" s="51">
+        <v>0</v>
+      </c>
+      <c r="J15" s="54">
         <v>141000</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="53">
         <v>15000</v>
       </c>
-      <c r="L15" s="62">
+      <c r="L15" s="51">
         <v>1000</v>
       </c>
-      <c r="M15" s="62">
+      <c r="M15" s="51">
         <v>2000</v>
       </c>
-      <c r="N15" s="62">
+      <c r="N15" s="51">
         <v>28000</v>
       </c>
-      <c r="O15" s="62">
-        <v>0</v>
-      </c>
-      <c r="P15" s="62">
+      <c r="O15" s="51">
+        <v>0</v>
+      </c>
+      <c r="P15" s="51">
         <v>35000</v>
       </c>
-      <c r="Q15" s="62">
-        <v>0</v>
-      </c>
-      <c r="R15" s="63">
+      <c r="Q15" s="51">
+        <v>0</v>
+      </c>
+      <c r="R15" s="52">
         <v>81000</v>
       </c>
-      <c r="S15" s="86">
+      <c r="S15" s="75">
         <v>222000</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="51">
         <v>-1000</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="51">
         <v>11000</v>
       </c>
-      <c r="E16" s="62">
+      <c r="E16" s="51">
         <v>17000</v>
       </c>
-      <c r="F16" s="62">
+      <c r="F16" s="51">
         <v>1000</v>
       </c>
-      <c r="G16" s="62">
-        <v>0</v>
-      </c>
-      <c r="H16" s="62">
-        <v>0</v>
-      </c>
-      <c r="I16" s="62">
-        <v>0</v>
-      </c>
-      <c r="J16" s="65">
+      <c r="G16" s="51">
+        <v>0</v>
+      </c>
+      <c r="H16" s="51">
+        <v>0</v>
+      </c>
+      <c r="I16" s="51">
+        <v>0</v>
+      </c>
+      <c r="J16" s="54">
         <v>28000</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="53">
         <v>20000</v>
       </c>
-      <c r="L16" s="62">
-        <v>0</v>
-      </c>
-      <c r="M16" s="62">
+      <c r="L16" s="51">
+        <v>0</v>
+      </c>
+      <c r="M16" s="51">
         <v>4000</v>
       </c>
-      <c r="N16" s="62">
+      <c r="N16" s="51">
         <v>24000</v>
       </c>
-      <c r="O16" s="62">
-        <v>0</v>
-      </c>
-      <c r="P16" s="62">
+      <c r="O16" s="51">
+        <v>0</v>
+      </c>
+      <c r="P16" s="51">
         <v>7000</v>
       </c>
-      <c r="Q16" s="62">
-        <v>0</v>
-      </c>
-      <c r="R16" s="63">
+      <c r="Q16" s="51">
+        <v>0</v>
+      </c>
+      <c r="R16" s="52">
         <v>55000</v>
       </c>
-      <c r="S16" s="86">
+      <c r="S16" s="75">
         <v>83000</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="54" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="51">
         <v>107000</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="51">
         <v>3000</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="51">
         <v>1000</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="51">
         <v>108000</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="51">
         <v>57000</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="51">
         <v>1000</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="51">
         <v>21000</v>
       </c>
-      <c r="J17" s="65">
+      <c r="J17" s="54">
         <v>298000</v>
       </c>
-      <c r="K17" s="64">
+      <c r="K17" s="53">
         <v>39000</v>
       </c>
-      <c r="L17" s="62">
-        <v>0</v>
-      </c>
-      <c r="M17" s="62">
-        <v>0</v>
-      </c>
-      <c r="N17" s="62">
+      <c r="L17" s="51">
+        <v>0</v>
+      </c>
+      <c r="M17" s="51">
+        <v>0</v>
+      </c>
+      <c r="N17" s="51">
         <v>69000</v>
       </c>
-      <c r="O17" s="62">
+      <c r="O17" s="51">
         <v>7000</v>
       </c>
-      <c r="P17" s="62">
+      <c r="P17" s="51">
         <v>119000</v>
       </c>
-      <c r="Q17" s="62">
+      <c r="Q17" s="51">
         <v>4000</v>
       </c>
-      <c r="R17" s="63">
+      <c r="R17" s="52">
         <v>238000</v>
       </c>
-      <c r="S17" s="86">
+      <c r="S17" s="75">
         <v>536000</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="51">
         <v>60000</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="51">
         <v>1000</v>
       </c>
-      <c r="E18" s="62">
+      <c r="E18" s="51">
         <v>5000</v>
       </c>
-      <c r="F18" s="62">
+      <c r="F18" s="51">
         <v>104000</v>
       </c>
-      <c r="G18" s="62">
+      <c r="G18" s="51">
         <v>39000</v>
       </c>
-      <c r="H18" s="62">
+      <c r="H18" s="51">
         <v>1000</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="51">
         <v>34000</v>
       </c>
-      <c r="J18" s="65">
+      <c r="J18" s="54">
         <v>244000</v>
       </c>
-      <c r="K18" s="64">
+      <c r="K18" s="53">
         <v>17000</v>
       </c>
-      <c r="L18" s="62">
-        <v>0</v>
-      </c>
-      <c r="M18" s="62">
+      <c r="L18" s="51">
+        <v>0</v>
+      </c>
+      <c r="M18" s="51">
         <v>1000</v>
       </c>
-      <c r="N18" s="62">
+      <c r="N18" s="51">
         <v>25000</v>
       </c>
-      <c r="O18" s="62">
+      <c r="O18" s="51">
         <v>9000</v>
       </c>
-      <c r="P18" s="62">
+      <c r="P18" s="51">
         <v>31000</v>
       </c>
-      <c r="Q18" s="62">
+      <c r="Q18" s="51">
         <v>7000</v>
       </c>
-      <c r="R18" s="63">
+      <c r="R18" s="52">
         <v>90000</v>
       </c>
-      <c r="S18" s="86">
+      <c r="S18" s="75">
         <v>334000</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="54" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="51">
         <v>15000</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="51">
         <v>3000</v>
       </c>
-      <c r="E19" s="62">
-        <v>0</v>
-      </c>
-      <c r="F19" s="62">
+      <c r="E19" s="51">
+        <v>0</v>
+      </c>
+      <c r="F19" s="51">
         <v>1000</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="51">
         <v>17000</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="51">
         <v>31000</v>
       </c>
-      <c r="I19" s="62">
+      <c r="I19" s="51">
         <v>2000</v>
       </c>
-      <c r="J19" s="65">
+      <c r="J19" s="54">
         <v>69000</v>
       </c>
-      <c r="K19" s="64">
+      <c r="K19" s="53">
         <v>7000</v>
       </c>
-      <c r="L19" s="62">
-        <v>0</v>
-      </c>
-      <c r="M19" s="62">
-        <v>0</v>
-      </c>
-      <c r="N19" s="62">
+      <c r="L19" s="51">
+        <v>0</v>
+      </c>
+      <c r="M19" s="51">
+        <v>0</v>
+      </c>
+      <c r="N19" s="51">
         <v>16000</v>
       </c>
-      <c r="O19" s="62">
+      <c r="O19" s="51">
         <v>5000</v>
       </c>
-      <c r="P19" s="62">
+      <c r="P19" s="51">
         <v>21000</v>
       </c>
-      <c r="Q19" s="62">
+      <c r="Q19" s="51">
         <v>1000</v>
       </c>
-      <c r="R19" s="63">
+      <c r="R19" s="52">
         <v>50000</v>
       </c>
-      <c r="S19" s="86">
+      <c r="S19" s="75">
         <v>119000</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="54" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="51">
         <v>3000</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="51">
         <v>1000</v>
       </c>
-      <c r="E20" s="62">
-        <v>0</v>
-      </c>
-      <c r="F20" s="62">
+      <c r="E20" s="51">
+        <v>0</v>
+      </c>
+      <c r="F20" s="51">
         <v>8000</v>
       </c>
-      <c r="G20" s="62">
+      <c r="G20" s="51">
         <v>3000</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="51">
         <v>28000</v>
       </c>
-      <c r="I20" s="62">
+      <c r="I20" s="51">
         <v>-1000</v>
       </c>
-      <c r="J20" s="65">
+      <c r="J20" s="54">
         <v>42000</v>
       </c>
-      <c r="K20" s="64">
+      <c r="K20" s="53">
         <v>1000</v>
       </c>
-      <c r="L20" s="62">
-        <v>0</v>
-      </c>
-      <c r="M20" s="62">
-        <v>0</v>
-      </c>
-      <c r="N20" s="62">
-        <v>0</v>
-      </c>
-      <c r="O20" s="62">
-        <v>0</v>
-      </c>
-      <c r="P20" s="62">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="62">
-        <v>0</v>
-      </c>
-      <c r="R20" s="63">
+      <c r="L20" s="51">
+        <v>0</v>
+      </c>
+      <c r="M20" s="51">
+        <v>0</v>
+      </c>
+      <c r="N20" s="51">
+        <v>0</v>
+      </c>
+      <c r="O20" s="51">
+        <v>0</v>
+      </c>
+      <c r="P20" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="51">
+        <v>0</v>
+      </c>
+      <c r="R20" s="52">
         <v>1000</v>
       </c>
-      <c r="S20" s="86">
+      <c r="S20" s="75">
         <v>43000</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="56" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="55">
         <v>19000</v>
       </c>
-      <c r="D21" s="66">
+      <c r="D21" s="55">
         <v>4000</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="55">
         <v>4000</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="55">
         <v>30000</v>
       </c>
-      <c r="G21" s="66">
-        <v>0</v>
-      </c>
-      <c r="H21" s="66">
-        <v>0</v>
-      </c>
-      <c r="I21" s="66">
-        <v>0</v>
-      </c>
-      <c r="J21" s="67">
+      <c r="G21" s="55">
+        <v>0</v>
+      </c>
+      <c r="H21" s="55">
+        <v>0</v>
+      </c>
+      <c r="I21" s="55">
+        <v>0</v>
+      </c>
+      <c r="J21" s="56">
         <v>57000</v>
       </c>
-      <c r="K21" s="68">
+      <c r="K21" s="57">
         <v>18000</v>
       </c>
-      <c r="L21" s="66">
-        <v>0</v>
-      </c>
-      <c r="M21" s="66">
+      <c r="L21" s="55">
+        <v>0</v>
+      </c>
+      <c r="M21" s="55">
         <v>1000</v>
       </c>
-      <c r="N21" s="66">
+      <c r="N21" s="55">
         <v>42000</v>
       </c>
-      <c r="O21" s="66">
-        <v>0</v>
-      </c>
-      <c r="P21" s="66">
+      <c r="O21" s="55">
+        <v>0</v>
+      </c>
+      <c r="P21" s="55">
         <v>70000</v>
       </c>
-      <c r="Q21" s="66">
-        <v>0</v>
-      </c>
-      <c r="R21" s="69">
+      <c r="Q21" s="55">
+        <v>0</v>
+      </c>
+      <c r="R21" s="58">
         <v>131000</v>
       </c>
-      <c r="S21" s="87">
+      <c r="S21" s="76">
         <v>188000</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="90" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="63">
         <v>548000</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="63">
         <v>126000</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="63">
         <v>175000</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="63">
         <v>1120000</v>
       </c>
-      <c r="G22" s="74">
+      <c r="G22" s="63">
         <v>198000</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H22" s="63">
         <v>641000</v>
       </c>
-      <c r="I22" s="74">
+      <c r="I22" s="63">
         <v>233000</v>
       </c>
-      <c r="J22" s="75">
+      <c r="J22" s="64">
         <v>3041000</v>
       </c>
-      <c r="K22" s="76">
+      <c r="K22" s="65">
         <v>307000</v>
       </c>
-      <c r="L22" s="74">
+      <c r="L22" s="63">
         <v>3000</v>
       </c>
-      <c r="M22" s="74">
+      <c r="M22" s="63">
         <v>47000</v>
       </c>
-      <c r="N22" s="74">
+      <c r="N22" s="63">
         <v>642000</v>
       </c>
-      <c r="O22" s="74">
+      <c r="O22" s="63">
         <v>40000</v>
       </c>
-      <c r="P22" s="74">
+      <c r="P22" s="63">
         <v>1159000</v>
       </c>
-      <c r="Q22" s="74">
+      <c r="Q22" s="63">
         <v>101000</v>
       </c>
-      <c r="R22" s="77">
+      <c r="R22" s="66">
         <v>2299000</v>
       </c>
-      <c r="S22" s="78">
+      <c r="S22" s="67">
         <v>5340000</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="70">
+      <c r="C23" s="59">
         <v>38000</v>
       </c>
-      <c r="D23" s="70">
+      <c r="D23" s="59">
         <v>16000</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="59">
         <v>7000</v>
       </c>
-      <c r="F23" s="70">
-        <v>0</v>
-      </c>
-      <c r="G23" s="70">
-        <v>0</v>
-      </c>
-      <c r="H23" s="70">
-        <v>0</v>
-      </c>
-      <c r="I23" s="70">
-        <v>0</v>
-      </c>
-      <c r="J23" s="71">
+      <c r="F23" s="59">
+        <v>0</v>
+      </c>
+      <c r="G23" s="59">
+        <v>0</v>
+      </c>
+      <c r="H23" s="59">
+        <v>0</v>
+      </c>
+      <c r="I23" s="59">
+        <v>0</v>
+      </c>
+      <c r="J23" s="60">
         <v>61000</v>
       </c>
-      <c r="K23" s="72">
-        <v>0</v>
-      </c>
-      <c r="L23" s="70">
+      <c r="K23" s="61">
+        <v>0</v>
+      </c>
+      <c r="L23" s="59">
         <v>2000</v>
       </c>
-      <c r="M23" s="70">
-        <v>0</v>
-      </c>
-      <c r="N23" s="70">
-        <v>0</v>
-      </c>
-      <c r="O23" s="70">
-        <v>0</v>
-      </c>
-      <c r="P23" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="70">
-        <v>0</v>
-      </c>
-      <c r="R23" s="73">
+      <c r="M23" s="59">
+        <v>0</v>
+      </c>
+      <c r="N23" s="59">
+        <v>0</v>
+      </c>
+      <c r="O23" s="59">
+        <v>0</v>
+      </c>
+      <c r="P23" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="59">
+        <v>0</v>
+      </c>
+      <c r="R23" s="62">
         <v>2000</v>
       </c>
-      <c r="S23" s="88">
+      <c r="S23" s="77">
         <v>63000</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="54" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="51">
         <v>16000</v>
       </c>
-      <c r="D24" s="62">
-        <v>0</v>
-      </c>
-      <c r="E24" s="62">
+      <c r="D24" s="51">
+        <v>0</v>
+      </c>
+      <c r="E24" s="51">
         <v>7000</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="51">
         <v>44000</v>
       </c>
-      <c r="G24" s="62">
-        <v>0</v>
-      </c>
-      <c r="H24" s="62">
-        <v>0</v>
-      </c>
-      <c r="I24" s="62">
-        <v>0</v>
-      </c>
-      <c r="J24" s="65">
+      <c r="G24" s="51">
+        <v>0</v>
+      </c>
+      <c r="H24" s="51">
+        <v>0</v>
+      </c>
+      <c r="I24" s="51">
+        <v>0</v>
+      </c>
+      <c r="J24" s="54">
         <v>67000</v>
       </c>
-      <c r="K24" s="64">
+      <c r="K24" s="53">
         <v>5000</v>
       </c>
-      <c r="L24" s="62">
-        <v>0</v>
-      </c>
-      <c r="M24" s="62">
+      <c r="L24" s="51">
+        <v>0</v>
+      </c>
+      <c r="M24" s="51">
         <v>2000</v>
       </c>
-      <c r="N24" s="62">
+      <c r="N24" s="51">
         <v>11000</v>
       </c>
-      <c r="O24" s="62">
-        <v>0</v>
-      </c>
-      <c r="P24" s="62">
+      <c r="O24" s="51">
+        <v>0</v>
+      </c>
+      <c r="P24" s="51">
         <v>60000</v>
       </c>
-      <c r="Q24" s="62">
-        <v>0</v>
-      </c>
-      <c r="R24" s="63">
+      <c r="Q24" s="51">
+        <v>0</v>
+      </c>
+      <c r="R24" s="52">
         <v>78000</v>
       </c>
-      <c r="S24" s="86">
+      <c r="S24" s="75">
         <v>145000</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="51">
         <v>-23000</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="51">
         <v>7000</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="51">
         <v>3000</v>
       </c>
-      <c r="F25" s="62">
+      <c r="F25" s="51">
         <v>-57000</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="51">
         <v>9000</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="51">
         <v>-46000</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="51">
         <v>2000</v>
       </c>
-      <c r="J25" s="65">
+      <c r="J25" s="54">
         <v>-105000</v>
       </c>
-      <c r="K25" s="64">
+      <c r="K25" s="53">
         <v>17000</v>
       </c>
-      <c r="L25" s="62">
-        <v>0</v>
-      </c>
-      <c r="M25" s="62">
-        <v>0</v>
-      </c>
-      <c r="N25" s="62">
+      <c r="L25" s="51">
+        <v>0</v>
+      </c>
+      <c r="M25" s="51">
+        <v>0</v>
+      </c>
+      <c r="N25" s="51">
         <v>111000</v>
       </c>
-      <c r="O25" s="62">
+      <c r="O25" s="51">
         <v>6000</v>
       </c>
-      <c r="P25" s="62">
+      <c r="P25" s="51">
         <v>96000</v>
       </c>
-      <c r="Q25" s="62">
-        <v>0</v>
-      </c>
-      <c r="R25" s="63">
+      <c r="Q25" s="51">
+        <v>0</v>
+      </c>
+      <c r="R25" s="52">
         <v>230000</v>
       </c>
-      <c r="S25" s="86">
+      <c r="S25" s="75">
         <v>125000</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="54" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="51">
         <v>32000</v>
       </c>
-      <c r="D26" s="62">
+      <c r="D26" s="51">
         <v>9000</v>
       </c>
-      <c r="E26" s="62">
+      <c r="E26" s="51">
         <v>12000</v>
       </c>
-      <c r="F26" s="62">
+      <c r="F26" s="51">
         <v>5000</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="51">
         <v>2000</v>
       </c>
-      <c r="H26" s="62">
-        <v>0</v>
-      </c>
-      <c r="I26" s="62">
-        <v>0</v>
-      </c>
-      <c r="J26" s="65">
+      <c r="H26" s="51">
+        <v>0</v>
+      </c>
+      <c r="I26" s="51">
+        <v>0</v>
+      </c>
+      <c r="J26" s="54">
         <v>60000</v>
       </c>
-      <c r="K26" s="64">
+      <c r="K26" s="53">
         <v>12000</v>
       </c>
-      <c r="L26" s="62">
-        <v>0</v>
-      </c>
-      <c r="M26" s="62">
-        <v>0</v>
-      </c>
-      <c r="N26" s="62">
+      <c r="L26" s="51">
+        <v>0</v>
+      </c>
+      <c r="M26" s="51">
+        <v>0</v>
+      </c>
+      <c r="N26" s="51">
         <v>38000</v>
       </c>
-      <c r="O26" s="62">
-        <v>0</v>
-      </c>
-      <c r="P26" s="62">
+      <c r="O26" s="51">
+        <v>0</v>
+      </c>
+      <c r="P26" s="51">
         <v>31000</v>
       </c>
-      <c r="Q26" s="62">
-        <v>0</v>
-      </c>
-      <c r="R26" s="63">
+      <c r="Q26" s="51">
+        <v>0</v>
+      </c>
+      <c r="R26" s="52">
         <v>81000</v>
       </c>
-      <c r="S26" s="86">
+      <c r="S26" s="75">
         <v>141000</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="54" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="51">
         <v>2000</v>
       </c>
-      <c r="D27" s="62">
-        <v>0</v>
-      </c>
-      <c r="E27" s="62">
-        <v>0</v>
-      </c>
-      <c r="F27" s="62">
+      <c r="D27" s="51">
+        <v>0</v>
+      </c>
+      <c r="E27" s="51">
+        <v>0</v>
+      </c>
+      <c r="F27" s="51">
         <v>3000</v>
       </c>
-      <c r="G27" s="62">
-        <v>0</v>
-      </c>
-      <c r="H27" s="62">
+      <c r="G27" s="51">
+        <v>0</v>
+      </c>
+      <c r="H27" s="51">
         <v>-11000</v>
       </c>
-      <c r="I27" s="62">
-        <v>0</v>
-      </c>
-      <c r="J27" s="65">
+      <c r="I27" s="51">
+        <v>0</v>
+      </c>
+      <c r="J27" s="54">
         <v>-6000</v>
       </c>
-      <c r="K27" s="64">
-        <v>0</v>
-      </c>
-      <c r="L27" s="62">
-        <v>0</v>
-      </c>
-      <c r="M27" s="62">
-        <v>0</v>
-      </c>
-      <c r="N27" s="62">
+      <c r="K27" s="53">
+        <v>0</v>
+      </c>
+      <c r="L27" s="51">
+        <v>0</v>
+      </c>
+      <c r="M27" s="51">
+        <v>0</v>
+      </c>
+      <c r="N27" s="51">
         <v>6000</v>
       </c>
-      <c r="O27" s="62">
-        <v>0</v>
-      </c>
-      <c r="P27" s="62">
+      <c r="O27" s="51">
+        <v>0</v>
+      </c>
+      <c r="P27" s="51">
         <v>6000</v>
       </c>
-      <c r="Q27" s="62">
-        <v>0</v>
-      </c>
-      <c r="R27" s="63">
+      <c r="Q27" s="51">
+        <v>0</v>
+      </c>
+      <c r="R27" s="52">
         <v>12000</v>
       </c>
-      <c r="S27" s="86">
+      <c r="S27" s="75">
         <v>6000</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="51">
         <v>27000</v>
       </c>
-      <c r="D28" s="62">
+      <c r="D28" s="51">
         <v>12000</v>
       </c>
-      <c r="E28" s="62">
+      <c r="E28" s="51">
         <v>4000</v>
       </c>
-      <c r="F28" s="62">
-        <v>0</v>
-      </c>
-      <c r="G28" s="62">
-        <v>0</v>
-      </c>
-      <c r="H28" s="62">
-        <v>0</v>
-      </c>
-      <c r="I28" s="62">
-        <v>0</v>
-      </c>
-      <c r="J28" s="65">
+      <c r="F28" s="51">
+        <v>0</v>
+      </c>
+      <c r="G28" s="51">
+        <v>0</v>
+      </c>
+      <c r="H28" s="51">
+        <v>0</v>
+      </c>
+      <c r="I28" s="51">
+        <v>0</v>
+      </c>
+      <c r="J28" s="54">
         <v>43000</v>
       </c>
-      <c r="K28" s="64">
+      <c r="K28" s="53">
         <v>9000</v>
       </c>
-      <c r="L28" s="62">
-        <v>0</v>
-      </c>
-      <c r="M28" s="62">
+      <c r="L28" s="51">
+        <v>0</v>
+      </c>
+      <c r="M28" s="51">
         <v>1000</v>
       </c>
-      <c r="N28" s="62">
+      <c r="N28" s="51">
         <v>10000</v>
       </c>
-      <c r="O28" s="62">
-        <v>0</v>
-      </c>
-      <c r="P28" s="62">
+      <c r="O28" s="51">
+        <v>0</v>
+      </c>
+      <c r="P28" s="51">
         <v>123000</v>
       </c>
-      <c r="Q28" s="62">
-        <v>0</v>
-      </c>
-      <c r="R28" s="63">
+      <c r="Q28" s="51">
+        <v>0</v>
+      </c>
+      <c r="R28" s="52">
         <v>143000</v>
       </c>
-      <c r="S28" s="86">
+      <c r="S28" s="75">
         <v>186000</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="51">
         <v>15000</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="51">
         <v>5000</v>
       </c>
-      <c r="E29" s="62">
+      <c r="E29" s="51">
         <v>46000</v>
       </c>
-      <c r="F29" s="62">
-        <v>0</v>
-      </c>
-      <c r="G29" s="62">
-        <v>0</v>
-      </c>
-      <c r="H29" s="62">
+      <c r="F29" s="51">
+        <v>0</v>
+      </c>
+      <c r="G29" s="51">
+        <v>0</v>
+      </c>
+      <c r="H29" s="51">
         <v>-6000</v>
       </c>
-      <c r="I29" s="62">
-        <v>0</v>
-      </c>
-      <c r="J29" s="65">
+      <c r="I29" s="51">
+        <v>0</v>
+      </c>
+      <c r="J29" s="54">
         <v>60000</v>
       </c>
-      <c r="K29" s="64">
-        <v>0</v>
-      </c>
-      <c r="L29" s="62">
-        <v>0</v>
-      </c>
-      <c r="M29" s="62">
-        <v>0</v>
-      </c>
-      <c r="N29" s="62">
-        <v>0</v>
-      </c>
-      <c r="O29" s="62">
-        <v>0</v>
-      </c>
-      <c r="P29" s="62">
+      <c r="K29" s="53">
+        <v>0</v>
+      </c>
+      <c r="L29" s="51">
+        <v>0</v>
+      </c>
+      <c r="M29" s="51">
+        <v>0</v>
+      </c>
+      <c r="N29" s="51">
+        <v>0</v>
+      </c>
+      <c r="O29" s="51">
+        <v>0</v>
+      </c>
+      <c r="P29" s="51">
         <v>-2000</v>
       </c>
-      <c r="Q29" s="62">
-        <v>0</v>
-      </c>
-      <c r="R29" s="63">
+      <c r="Q29" s="51">
+        <v>0</v>
+      </c>
+      <c r="R29" s="52">
         <v>-2000</v>
       </c>
-      <c r="S29" s="86">
+      <c r="S29" s="75">
         <v>58000</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="62">
+      <c r="C30" s="51">
         <v>11000</v>
       </c>
-      <c r="D30" s="62">
+      <c r="D30" s="51">
         <v>9000</v>
       </c>
-      <c r="E30" s="62">
-        <v>0</v>
-      </c>
-      <c r="F30" s="62">
+      <c r="E30" s="51">
+        <v>0</v>
+      </c>
+      <c r="F30" s="51">
         <v>-35000</v>
       </c>
-      <c r="G30" s="62">
+      <c r="G30" s="51">
         <v>7000</v>
       </c>
-      <c r="H30" s="62">
-        <v>0</v>
-      </c>
-      <c r="I30" s="62">
-        <v>0</v>
-      </c>
-      <c r="J30" s="65">
+      <c r="H30" s="51">
+        <v>0</v>
+      </c>
+      <c r="I30" s="51">
+        <v>0</v>
+      </c>
+      <c r="J30" s="54">
         <v>-8000</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="53">
         <v>9000</v>
       </c>
-      <c r="L30" s="62">
-        <v>0</v>
-      </c>
-      <c r="M30" s="62">
-        <v>0</v>
-      </c>
-      <c r="N30" s="62">
+      <c r="L30" s="51">
+        <v>0</v>
+      </c>
+      <c r="M30" s="51">
+        <v>0</v>
+      </c>
+      <c r="N30" s="51">
         <v>28000</v>
       </c>
-      <c r="O30" s="62">
+      <c r="O30" s="51">
         <v>1000</v>
       </c>
-      <c r="P30" s="62">
+      <c r="P30" s="51">
         <v>33000</v>
       </c>
-      <c r="Q30" s="62">
-        <v>0</v>
-      </c>
-      <c r="R30" s="63">
+      <c r="Q30" s="51">
+        <v>0</v>
+      </c>
+      <c r="R30" s="52">
         <v>71000</v>
       </c>
-      <c r="S30" s="86">
+      <c r="S30" s="75">
         <v>63000</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="54" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="62">
+      <c r="C31" s="51">
         <v>2000</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D31" s="51">
         <v>1000</v>
       </c>
-      <c r="E31" s="62">
+      <c r="E31" s="51">
         <v>2000</v>
       </c>
-      <c r="F31" s="62">
+      <c r="F31" s="51">
         <v>3000</v>
       </c>
-      <c r="G31" s="62">
-        <v>0</v>
-      </c>
-      <c r="H31" s="62">
+      <c r="G31" s="51">
+        <v>0</v>
+      </c>
+      <c r="H31" s="51">
         <v>67000</v>
       </c>
-      <c r="I31" s="62">
-        <v>0</v>
-      </c>
-      <c r="J31" s="65">
+      <c r="I31" s="51">
+        <v>0</v>
+      </c>
+      <c r="J31" s="54">
         <v>75000</v>
       </c>
-      <c r="K31" s="64">
+      <c r="K31" s="53">
         <v>7000</v>
       </c>
-      <c r="L31" s="62">
-        <v>0</v>
-      </c>
-      <c r="M31" s="62">
-        <v>0</v>
-      </c>
-      <c r="N31" s="62">
+      <c r="L31" s="51">
+        <v>0</v>
+      </c>
+      <c r="M31" s="51">
+        <v>0</v>
+      </c>
+      <c r="N31" s="51">
         <v>17000</v>
       </c>
-      <c r="O31" s="62">
-        <v>0</v>
-      </c>
-      <c r="P31" s="62">
+      <c r="O31" s="51">
+        <v>0</v>
+      </c>
+      <c r="P31" s="51">
         <v>73000</v>
       </c>
-      <c r="Q31" s="62">
-        <v>0</v>
-      </c>
-      <c r="R31" s="63">
+      <c r="Q31" s="51">
+        <v>0</v>
+      </c>
+      <c r="R31" s="52">
         <v>97000</v>
       </c>
-      <c r="S31" s="86">
+      <c r="S31" s="75">
         <v>172000</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="54" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="62">
+      <c r="C32" s="51">
         <v>8000</v>
       </c>
-      <c r="D32" s="62">
-        <v>0</v>
-      </c>
-      <c r="E32" s="62">
+      <c r="D32" s="51">
+        <v>0</v>
+      </c>
+      <c r="E32" s="51">
         <v>6000</v>
       </c>
-      <c r="F32" s="62">
-        <v>0</v>
-      </c>
-      <c r="G32" s="62">
-        <v>0</v>
-      </c>
-      <c r="H32" s="62">
+      <c r="F32" s="51">
+        <v>0</v>
+      </c>
+      <c r="G32" s="51">
+        <v>0</v>
+      </c>
+      <c r="H32" s="51">
         <v>159000</v>
       </c>
-      <c r="I32" s="62">
-        <v>0</v>
-      </c>
-      <c r="J32" s="65">
+      <c r="I32" s="51">
+        <v>0</v>
+      </c>
+      <c r="J32" s="54">
         <v>173000</v>
       </c>
-      <c r="K32" s="64">
+      <c r="K32" s="53">
         <v>17000</v>
       </c>
-      <c r="L32" s="62">
-        <v>0</v>
-      </c>
-      <c r="M32" s="62">
+      <c r="L32" s="51">
+        <v>0</v>
+      </c>
+      <c r="M32" s="51">
         <v>1000</v>
       </c>
-      <c r="N32" s="62">
+      <c r="N32" s="51">
         <v>15000</v>
       </c>
-      <c r="O32" s="62">
-        <v>0</v>
-      </c>
-      <c r="P32" s="62">
+      <c r="O32" s="51">
+        <v>0</v>
+      </c>
+      <c r="P32" s="51">
         <v>58000</v>
       </c>
-      <c r="Q32" s="62">
-        <v>0</v>
-      </c>
-      <c r="R32" s="63">
+      <c r="Q32" s="51">
+        <v>0</v>
+      </c>
+      <c r="R32" s="52">
         <v>91000</v>
       </c>
-      <c r="S32" s="86">
+      <c r="S32" s="75">
         <v>264000</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="54" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="62">
+      <c r="C33" s="51">
         <v>31000</v>
       </c>
-      <c r="D33" s="62">
+      <c r="D33" s="51">
         <v>4000</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="51">
         <v>1000</v>
       </c>
-      <c r="F33" s="62">
+      <c r="F33" s="51">
         <v>88000</v>
       </c>
-      <c r="G33" s="62">
+      <c r="G33" s="51">
         <v>4000</v>
       </c>
-      <c r="H33" s="62">
+      <c r="H33" s="51">
         <v>62000</v>
       </c>
-      <c r="I33" s="62">
+      <c r="I33" s="51">
         <v>1000</v>
       </c>
-      <c r="J33" s="65">
+      <c r="J33" s="54">
         <v>191000</v>
       </c>
-      <c r="K33" s="64">
+      <c r="K33" s="53">
         <v>13000</v>
       </c>
-      <c r="L33" s="62">
-        <v>0</v>
-      </c>
-      <c r="M33" s="62">
-        <v>0</v>
-      </c>
-      <c r="N33" s="62">
+      <c r="L33" s="51">
+        <v>0</v>
+      </c>
+      <c r="M33" s="51">
+        <v>0</v>
+      </c>
+      <c r="N33" s="51">
         <v>19000</v>
       </c>
-      <c r="O33" s="62">
-        <v>0</v>
-      </c>
-      <c r="P33" s="62">
+      <c r="O33" s="51">
+        <v>0</v>
+      </c>
+      <c r="P33" s="51">
         <v>9000</v>
       </c>
-      <c r="Q33" s="62">
-        <v>0</v>
-      </c>
-      <c r="R33" s="63">
+      <c r="Q33" s="51">
+        <v>0</v>
+      </c>
+      <c r="R33" s="52">
         <v>41000</v>
       </c>
-      <c r="S33" s="86">
+      <c r="S33" s="75">
         <v>232000</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="54" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="62">
+      <c r="C34" s="51">
         <v>25000</v>
       </c>
-      <c r="D34" s="62">
+      <c r="D34" s="51">
         <v>1000</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="51">
         <v>7000</v>
       </c>
-      <c r="F34" s="62">
+      <c r="F34" s="51">
         <v>23000</v>
       </c>
-      <c r="G34" s="62">
-        <v>0</v>
-      </c>
-      <c r="H34" s="62">
+      <c r="G34" s="51">
+        <v>0</v>
+      </c>
+      <c r="H34" s="51">
         <v>473000</v>
       </c>
-      <c r="I34" s="62">
-        <v>0</v>
-      </c>
-      <c r="J34" s="65">
+      <c r="I34" s="51">
+        <v>0</v>
+      </c>
+      <c r="J34" s="54">
         <v>529000</v>
       </c>
-      <c r="K34" s="64">
+      <c r="K34" s="53">
         <v>8000</v>
       </c>
-      <c r="L34" s="62">
-        <v>0</v>
-      </c>
-      <c r="M34" s="62">
+      <c r="L34" s="51">
+        <v>0</v>
+      </c>
+      <c r="M34" s="51">
         <v>1000</v>
       </c>
-      <c r="N34" s="62">
+      <c r="N34" s="51">
         <v>28000</v>
       </c>
-      <c r="O34" s="62">
-        <v>0</v>
-      </c>
-      <c r="P34" s="62">
+      <c r="O34" s="51">
+        <v>0</v>
+      </c>
+      <c r="P34" s="51">
         <v>81000</v>
       </c>
-      <c r="Q34" s="62">
-        <v>0</v>
-      </c>
-      <c r="R34" s="63">
+      <c r="Q34" s="51">
+        <v>0</v>
+      </c>
+      <c r="R34" s="52">
         <v>118000</v>
       </c>
-      <c r="S34" s="86">
+      <c r="S34" s="75">
         <v>647000</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="62">
+      <c r="C35" s="51">
         <v>2000</v>
       </c>
-      <c r="D35" s="62">
-        <v>0</v>
-      </c>
-      <c r="E35" s="62">
+      <c r="D35" s="51">
+        <v>0</v>
+      </c>
+      <c r="E35" s="51">
         <v>2000</v>
       </c>
-      <c r="F35" s="62">
-        <v>0</v>
-      </c>
-      <c r="G35" s="62">
-        <v>0</v>
-      </c>
-      <c r="H35" s="62">
+      <c r="F35" s="51">
+        <v>0</v>
+      </c>
+      <c r="G35" s="51">
+        <v>0</v>
+      </c>
+      <c r="H35" s="51">
         <v>156000</v>
       </c>
-      <c r="I35" s="62">
-        <v>0</v>
-      </c>
-      <c r="J35" s="65">
+      <c r="I35" s="51">
+        <v>0</v>
+      </c>
+      <c r="J35" s="54">
         <v>160000</v>
       </c>
-      <c r="K35" s="64">
+      <c r="K35" s="53">
         <v>2000</v>
       </c>
-      <c r="L35" s="62">
-        <v>0</v>
-      </c>
-      <c r="M35" s="62">
-        <v>0</v>
-      </c>
-      <c r="N35" s="62">
+      <c r="L35" s="51">
+        <v>0</v>
+      </c>
+      <c r="M35" s="51">
+        <v>0</v>
+      </c>
+      <c r="N35" s="51">
         <v>5000</v>
       </c>
-      <c r="O35" s="62">
-        <v>0</v>
-      </c>
-      <c r="P35" s="62">
+      <c r="O35" s="51">
+        <v>0</v>
+      </c>
+      <c r="P35" s="51">
         <v>33000</v>
       </c>
-      <c r="Q35" s="62">
-        <v>0</v>
-      </c>
-      <c r="R35" s="63">
+      <c r="Q35" s="51">
+        <v>0</v>
+      </c>
+      <c r="R35" s="52">
         <v>40000</v>
       </c>
-      <c r="S35" s="86">
+      <c r="S35" s="75">
         <v>200000</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="54" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="62">
+      <c r="C36" s="51">
         <v>-2000</v>
       </c>
-      <c r="D36" s="62">
+      <c r="D36" s="51">
         <v>1000</v>
       </c>
-      <c r="E36" s="62">
-        <v>0</v>
-      </c>
-      <c r="F36" s="62">
+      <c r="E36" s="51">
+        <v>0</v>
+      </c>
+      <c r="F36" s="51">
         <v>6000</v>
       </c>
-      <c r="G36" s="62">
+      <c r="G36" s="51">
         <v>7000</v>
       </c>
-      <c r="H36" s="62">
+      <c r="H36" s="51">
         <v>-1000</v>
       </c>
-      <c r="I36" s="62">
+      <c r="I36" s="51">
         <v>1000</v>
       </c>
-      <c r="J36" s="65">
+      <c r="J36" s="54">
         <v>12000</v>
       </c>
-      <c r="K36" s="64">
+      <c r="K36" s="53">
         <v>13000</v>
       </c>
-      <c r="L36" s="62">
-        <v>0</v>
-      </c>
-      <c r="M36" s="62">
-        <v>0</v>
-      </c>
-      <c r="N36" s="62">
+      <c r="L36" s="51">
+        <v>0</v>
+      </c>
+      <c r="M36" s="51">
+        <v>0</v>
+      </c>
+      <c r="N36" s="51">
         <v>12000</v>
       </c>
-      <c r="O36" s="62">
-        <v>0</v>
-      </c>
-      <c r="P36" s="62">
+      <c r="O36" s="51">
+        <v>0</v>
+      </c>
+      <c r="P36" s="51">
         <v>27000</v>
       </c>
-      <c r="Q36" s="62">
-        <v>0</v>
-      </c>
-      <c r="R36" s="63">
+      <c r="Q36" s="51">
+        <v>0</v>
+      </c>
+      <c r="R36" s="52">
         <v>52000</v>
       </c>
-      <c r="S36" s="86">
+      <c r="S36" s="75">
         <v>64000</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="54" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="51">
         <v>18000</v>
       </c>
-      <c r="D37" s="62">
-        <v>0</v>
-      </c>
-      <c r="E37" s="62">
-        <v>0</v>
-      </c>
-      <c r="F37" s="62">
-        <v>0</v>
-      </c>
-      <c r="G37" s="62">
-        <v>0</v>
-      </c>
-      <c r="H37" s="62">
+      <c r="D37" s="51">
+        <v>0</v>
+      </c>
+      <c r="E37" s="51">
+        <v>0</v>
+      </c>
+      <c r="F37" s="51">
+        <v>0</v>
+      </c>
+      <c r="G37" s="51">
+        <v>0</v>
+      </c>
+      <c r="H37" s="51">
         <v>35000</v>
       </c>
-      <c r="I37" s="62">
-        <v>0</v>
-      </c>
-      <c r="J37" s="65">
+      <c r="I37" s="51">
+        <v>0</v>
+      </c>
+      <c r="J37" s="54">
         <v>53000</v>
       </c>
-      <c r="K37" s="64">
+      <c r="K37" s="53">
         <v>8000</v>
       </c>
-      <c r="L37" s="62">
-        <v>0</v>
-      </c>
-      <c r="M37" s="62">
-        <v>0</v>
-      </c>
-      <c r="N37" s="62">
+      <c r="L37" s="51">
+        <v>0</v>
+      </c>
+      <c r="M37" s="51">
+        <v>0</v>
+      </c>
+      <c r="N37" s="51">
         <v>15000</v>
       </c>
-      <c r="O37" s="62">
-        <v>0</v>
-      </c>
-      <c r="P37" s="62">
+      <c r="O37" s="51">
+        <v>0</v>
+      </c>
+      <c r="P37" s="51">
         <v>152000</v>
       </c>
-      <c r="Q37" s="62">
-        <v>0</v>
-      </c>
-      <c r="R37" s="63">
+      <c r="Q37" s="51">
+        <v>0</v>
+      </c>
+      <c r="R37" s="52">
         <v>175000</v>
       </c>
-      <c r="S37" s="86">
+      <c r="S37" s="75">
         <v>228000</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="54" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="62">
+      <c r="C38" s="51">
         <v>24000</v>
       </c>
-      <c r="D38" s="62">
+      <c r="D38" s="51">
         <v>8000</v>
       </c>
-      <c r="E38" s="62">
-        <v>0</v>
-      </c>
-      <c r="F38" s="62">
+      <c r="E38" s="51">
+        <v>0</v>
+      </c>
+      <c r="F38" s="51">
         <v>-15000</v>
       </c>
-      <c r="G38" s="62">
-        <v>0</v>
-      </c>
-      <c r="H38" s="62">
+      <c r="G38" s="51">
+        <v>0</v>
+      </c>
+      <c r="H38" s="51">
         <v>-13000</v>
       </c>
-      <c r="I38" s="62">
+      <c r="I38" s="51">
         <v>1000</v>
       </c>
-      <c r="J38" s="65">
+      <c r="J38" s="54">
         <v>5000</v>
       </c>
-      <c r="K38" s="64">
+      <c r="K38" s="53">
         <v>6000</v>
       </c>
-      <c r="L38" s="62">
-        <v>0</v>
-      </c>
-      <c r="M38" s="62">
-        <v>0</v>
-      </c>
-      <c r="N38" s="62">
+      <c r="L38" s="51">
+        <v>0</v>
+      </c>
+      <c r="M38" s="51">
+        <v>0</v>
+      </c>
+      <c r="N38" s="51">
         <v>17000</v>
       </c>
-      <c r="O38" s="62">
-        <v>0</v>
-      </c>
-      <c r="P38" s="62">
+      <c r="O38" s="51">
+        <v>0</v>
+      </c>
+      <c r="P38" s="51">
         <v>23000</v>
       </c>
-      <c r="Q38" s="62">
-        <v>0</v>
-      </c>
-      <c r="R38" s="63">
+      <c r="Q38" s="51">
+        <v>0</v>
+      </c>
+      <c r="R38" s="52">
         <v>46000</v>
       </c>
-      <c r="S38" s="86">
+      <c r="S38" s="75">
         <v>51000</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="56" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="51">
         <v>24000</v>
       </c>
-      <c r="D39" s="62">
+      <c r="D39" s="51">
         <v>5000</v>
       </c>
-      <c r="E39" s="62">
-        <v>0</v>
-      </c>
-      <c r="F39" s="62">
+      <c r="E39" s="51">
+        <v>0</v>
+      </c>
+      <c r="F39" s="51">
         <v>-36000</v>
       </c>
-      <c r="G39" s="62">
+      <c r="G39" s="51">
         <v>1000</v>
       </c>
-      <c r="H39" s="62">
+      <c r="H39" s="51">
         <v>7000</v>
       </c>
-      <c r="I39" s="62">
+      <c r="I39" s="51">
         <v>1000</v>
       </c>
-      <c r="J39" s="65">
+      <c r="J39" s="54">
         <v>2000</v>
       </c>
-      <c r="K39" s="64">
+      <c r="K39" s="53">
         <v>8000</v>
       </c>
-      <c r="L39" s="62">
-        <v>0</v>
-      </c>
-      <c r="M39" s="62">
-        <v>0</v>
-      </c>
-      <c r="N39" s="62">
+      <c r="L39" s="51">
+        <v>0</v>
+      </c>
+      <c r="M39" s="51">
+        <v>0</v>
+      </c>
+      <c r="N39" s="51">
         <v>16000</v>
       </c>
-      <c r="O39" s="62">
-        <v>0</v>
-      </c>
-      <c r="P39" s="62">
+      <c r="O39" s="51">
+        <v>0</v>
+      </c>
+      <c r="P39" s="51">
         <v>21000</v>
       </c>
-      <c r="Q39" s="62">
-        <v>0</v>
-      </c>
-      <c r="R39" s="63">
+      <c r="Q39" s="51">
+        <v>0</v>
+      </c>
+      <c r="R39" s="52">
         <v>45000</v>
       </c>
-      <c r="S39" s="86">
+      <c r="S39" s="75">
         <v>47000</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="48"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="66">
+      <c r="C40" s="55">
         <v>1000</v>
       </c>
-      <c r="D40" s="66">
-        <v>0</v>
-      </c>
-      <c r="E40" s="66">
+      <c r="D40" s="55">
+        <v>0</v>
+      </c>
+      <c r="E40" s="55">
         <v>8000</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="55">
         <v>12000</v>
       </c>
-      <c r="G40" s="66">
-        <v>0</v>
-      </c>
-      <c r="H40" s="66">
+      <c r="G40" s="55">
+        <v>0</v>
+      </c>
+      <c r="H40" s="55">
         <v>314000</v>
       </c>
-      <c r="I40" s="66">
-        <v>0</v>
-      </c>
-      <c r="J40" s="67">
+      <c r="I40" s="55">
+        <v>0</v>
+      </c>
+      <c r="J40" s="56">
         <v>335000</v>
       </c>
-      <c r="K40" s="68">
-        <v>0</v>
-      </c>
-      <c r="L40" s="66">
-        <v>0</v>
-      </c>
-      <c r="M40" s="66">
+      <c r="K40" s="57">
+        <v>0</v>
+      </c>
+      <c r="L40" s="55">
+        <v>0</v>
+      </c>
+      <c r="M40" s="55">
         <v>2000</v>
       </c>
-      <c r="N40" s="66">
+      <c r="N40" s="55">
         <v>3000</v>
       </c>
-      <c r="O40" s="66">
-        <v>0</v>
-      </c>
-      <c r="P40" s="66">
+      <c r="O40" s="55">
+        <v>0</v>
+      </c>
+      <c r="P40" s="55">
         <v>107000</v>
       </c>
-      <c r="Q40" s="66">
-        <v>0</v>
-      </c>
-      <c r="R40" s="69">
+      <c r="Q40" s="55">
+        <v>0</v>
+      </c>
+      <c r="R40" s="58">
         <v>112000</v>
       </c>
-      <c r="S40" s="87">
+      <c r="S40" s="76">
         <v>447000</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49"/>
-      <c r="B41" s="90" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="74">
+      <c r="C41" s="63">
         <v>251000</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="63">
         <v>78000</v>
       </c>
-      <c r="E41" s="74">
+      <c r="E41" s="63">
         <v>105000</v>
       </c>
-      <c r="F41" s="74">
+      <c r="F41" s="63">
         <v>41000</v>
       </c>
-      <c r="G41" s="74">
+      <c r="G41" s="63">
         <v>30000</v>
       </c>
-      <c r="H41" s="74">
+      <c r="H41" s="63">
         <v>1196000</v>
       </c>
-      <c r="I41" s="74">
+      <c r="I41" s="63">
         <v>6000</v>
       </c>
-      <c r="J41" s="75">
+      <c r="J41" s="64">
         <v>1707000</v>
       </c>
-      <c r="K41" s="76">
+      <c r="K41" s="65">
         <v>134000</v>
       </c>
-      <c r="L41" s="74">
+      <c r="L41" s="63">
         <v>2000</v>
       </c>
-      <c r="M41" s="74">
+      <c r="M41" s="63">
         <v>7000</v>
       </c>
-      <c r="N41" s="74">
+      <c r="N41" s="63">
         <v>351000</v>
       </c>
-      <c r="O41" s="74">
+      <c r="O41" s="63">
         <v>7000</v>
       </c>
-      <c r="P41" s="74">
+      <c r="P41" s="63">
         <v>931000</v>
       </c>
-      <c r="Q41" s="74">
-        <v>0</v>
-      </c>
-      <c r="R41" s="77">
+      <c r="Q41" s="63">
+        <v>0</v>
+      </c>
+      <c r="R41" s="66">
         <v>1432000</v>
       </c>
-      <c r="S41" s="78">
+      <c r="S41" s="67">
         <v>3139000</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="70">
+      <c r="C42" s="59">
         <v>18000</v>
       </c>
-      <c r="D42" s="70">
+      <c r="D42" s="59">
         <v>4000</v>
       </c>
-      <c r="E42" s="70">
+      <c r="E42" s="59">
         <v>37000</v>
       </c>
-      <c r="F42" s="70">
+      <c r="F42" s="59">
         <v>17000</v>
       </c>
-      <c r="G42" s="70">
+      <c r="G42" s="59">
         <v>9000</v>
       </c>
-      <c r="H42" s="70">
+      <c r="H42" s="59">
         <v>36000</v>
       </c>
-      <c r="I42" s="70">
+      <c r="I42" s="59">
         <v>74000</v>
       </c>
-      <c r="J42" s="71">
+      <c r="J42" s="60">
         <v>195000</v>
       </c>
-      <c r="K42" s="72">
+      <c r="K42" s="61">
         <v>1000</v>
       </c>
-      <c r="L42" s="70">
-        <v>0</v>
-      </c>
-      <c r="M42" s="70">
-        <v>0</v>
-      </c>
-      <c r="N42" s="70">
+      <c r="L42" s="59">
+        <v>0</v>
+      </c>
+      <c r="M42" s="59">
+        <v>0</v>
+      </c>
+      <c r="N42" s="59">
         <v>1000</v>
       </c>
-      <c r="O42" s="70">
-        <v>0</v>
-      </c>
-      <c r="P42" s="70">
+      <c r="O42" s="59">
+        <v>0</v>
+      </c>
+      <c r="P42" s="59">
         <v>1000</v>
       </c>
-      <c r="Q42" s="70">
+      <c r="Q42" s="59">
         <v>-2000</v>
       </c>
-      <c r="R42" s="73">
+      <c r="R42" s="62">
         <v>1000</v>
       </c>
-      <c r="S42" s="88">
+      <c r="S42" s="77">
         <v>196000</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
-      <c r="B43" s="57" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="62">
+      <c r="C43" s="51">
         <v>5000</v>
       </c>
-      <c r="D43" s="62">
-        <v>0</v>
-      </c>
-      <c r="E43" s="62">
+      <c r="D43" s="51">
+        <v>0</v>
+      </c>
+      <c r="E43" s="51">
         <v>4000</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="51">
         <v>2000</v>
       </c>
-      <c r="G43" s="62">
+      <c r="G43" s="51">
         <v>4000</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="51">
         <v>7000</v>
       </c>
-      <c r="I43" s="62">
-        <v>0</v>
-      </c>
-      <c r="J43" s="65">
+      <c r="I43" s="51">
+        <v>0</v>
+      </c>
+      <c r="J43" s="54">
         <v>22000</v>
       </c>
-      <c r="K43" s="64">
+      <c r="K43" s="53">
         <v>4000</v>
       </c>
-      <c r="L43" s="62">
-        <v>0</v>
-      </c>
-      <c r="M43" s="62">
-        <v>0</v>
-      </c>
-      <c r="N43" s="62">
+      <c r="L43" s="51">
+        <v>0</v>
+      </c>
+      <c r="M43" s="51">
+        <v>0</v>
+      </c>
+      <c r="N43" s="51">
         <v>11000</v>
       </c>
-      <c r="O43" s="62">
+      <c r="O43" s="51">
         <v>2000</v>
       </c>
-      <c r="P43" s="62">
+      <c r="P43" s="51">
         <v>3000</v>
       </c>
-      <c r="Q43" s="62">
+      <c r="Q43" s="51">
         <v>12000</v>
       </c>
-      <c r="R43" s="63">
+      <c r="R43" s="52">
         <v>32000</v>
       </c>
-      <c r="S43" s="86">
+      <c r="S43" s="75">
         <v>54000</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
-      <c r="B44" s="57" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="62">
+      <c r="C44" s="51">
         <v>6000</v>
       </c>
-      <c r="D44" s="62">
-        <v>0</v>
-      </c>
-      <c r="E44" s="62">
+      <c r="D44" s="51">
+        <v>0</v>
+      </c>
+      <c r="E44" s="51">
         <v>13000</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="51">
         <v>11000</v>
       </c>
-      <c r="G44" s="62">
+      <c r="G44" s="51">
         <v>2000</v>
       </c>
-      <c r="H44" s="62">
+      <c r="H44" s="51">
         <v>14000</v>
       </c>
-      <c r="I44" s="62">
+      <c r="I44" s="51">
         <v>22000</v>
       </c>
-      <c r="J44" s="65">
+      <c r="J44" s="54">
         <v>68000</v>
       </c>
-      <c r="K44" s="64">
+      <c r="K44" s="53">
         <v>5000</v>
       </c>
-      <c r="L44" s="62">
-        <v>0</v>
-      </c>
-      <c r="M44" s="62">
+      <c r="L44" s="51">
+        <v>0</v>
+      </c>
+      <c r="M44" s="51">
         <v>3000</v>
       </c>
-      <c r="N44" s="62">
+      <c r="N44" s="51">
         <v>3000</v>
       </c>
-      <c r="O44" s="62">
+      <c r="O44" s="51">
         <v>5000</v>
       </c>
-      <c r="P44" s="62">
+      <c r="P44" s="51">
         <v>4000</v>
       </c>
-      <c r="Q44" s="62">
+      <c r="Q44" s="51">
         <v>20000</v>
       </c>
-      <c r="R44" s="63">
+      <c r="R44" s="52">
         <v>40000</v>
       </c>
-      <c r="S44" s="86">
+      <c r="S44" s="75">
         <v>108000</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
-      <c r="B45" s="57" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="62">
+      <c r="C45" s="51">
         <v>1000</v>
       </c>
-      <c r="D45" s="62">
+      <c r="D45" s="51">
         <v>1000</v>
       </c>
-      <c r="E45" s="62">
+      <c r="E45" s="51">
         <v>3000</v>
       </c>
-      <c r="F45" s="62">
-        <v>0</v>
-      </c>
-      <c r="G45" s="62">
+      <c r="F45" s="51">
+        <v>0</v>
+      </c>
+      <c r="G45" s="51">
         <v>10000</v>
       </c>
-      <c r="H45" s="62">
+      <c r="H45" s="51">
         <v>9000</v>
       </c>
-      <c r="I45" s="62">
+      <c r="I45" s="51">
         <v>13000</v>
       </c>
-      <c r="J45" s="65">
+      <c r="J45" s="54">
         <v>37000</v>
       </c>
-      <c r="K45" s="64">
+      <c r="K45" s="53">
         <v>2000</v>
       </c>
-      <c r="L45" s="62">
-        <v>0</v>
-      </c>
-      <c r="M45" s="62">
-        <v>0</v>
-      </c>
-      <c r="N45" s="62">
+      <c r="L45" s="51">
+        <v>0</v>
+      </c>
+      <c r="M45" s="51">
+        <v>0</v>
+      </c>
+      <c r="N45" s="51">
         <v>5000</v>
       </c>
-      <c r="O45" s="62">
+      <c r="O45" s="51">
         <v>2000</v>
       </c>
-      <c r="P45" s="62">
+      <c r="P45" s="51">
         <v>3000</v>
       </c>
-      <c r="Q45" s="62">
+      <c r="Q45" s="51">
         <v>10000</v>
       </c>
-      <c r="R45" s="63">
+      <c r="R45" s="52">
         <v>22000</v>
       </c>
-      <c r="S45" s="86">
+      <c r="S45" s="75">
         <v>59000</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="49"/>
-      <c r="B46" s="58" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="62">
+      <c r="C46" s="51">
         <v>8000</v>
       </c>
-      <c r="D46" s="62">
+      <c r="D46" s="51">
         <v>2000</v>
       </c>
-      <c r="E46" s="62">
-        <v>0</v>
-      </c>
-      <c r="F46" s="62">
+      <c r="E46" s="51">
+        <v>0</v>
+      </c>
+      <c r="F46" s="51">
         <v>18000</v>
       </c>
-      <c r="G46" s="62">
+      <c r="G46" s="51">
         <v>-1000</v>
       </c>
-      <c r="H46" s="62">
+      <c r="H46" s="51">
         <v>2000</v>
       </c>
-      <c r="I46" s="62">
+      <c r="I46" s="51">
         <v>20000</v>
       </c>
-      <c r="J46" s="65">
+      <c r="J46" s="54">
         <v>49000</v>
       </c>
-      <c r="K46" s="64">
+      <c r="K46" s="53">
         <v>4000</v>
       </c>
-      <c r="L46" s="62">
-        <v>0</v>
-      </c>
-      <c r="M46" s="62">
-        <v>0</v>
-      </c>
-      <c r="N46" s="62">
+      <c r="L46" s="51">
+        <v>0</v>
+      </c>
+      <c r="M46" s="51">
+        <v>0</v>
+      </c>
+      <c r="N46" s="51">
         <v>20000</v>
       </c>
-      <c r="O46" s="62">
+      <c r="O46" s="51">
         <v>5000</v>
       </c>
-      <c r="P46" s="62">
+      <c r="P46" s="51">
         <v>2000</v>
       </c>
-      <c r="Q46" s="62">
+      <c r="Q46" s="51">
         <v>7000</v>
       </c>
-      <c r="R46" s="63">
+      <c r="R46" s="52">
         <v>38000</v>
       </c>
-      <c r="S46" s="86">
+      <c r="S46" s="75">
         <v>87000</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
-      <c r="B47" s="91" t="s">
+      <c r="A47" s="40"/>
+      <c r="B47" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="80">
+      <c r="C47" s="69">
         <v>38000</v>
       </c>
-      <c r="D47" s="80">
+      <c r="D47" s="69">
         <v>7000</v>
       </c>
-      <c r="E47" s="80">
+      <c r="E47" s="69">
         <v>57000</v>
       </c>
-      <c r="F47" s="80">
+      <c r="F47" s="69">
         <v>48000</v>
       </c>
-      <c r="G47" s="80">
+      <c r="G47" s="69">
         <v>24000</v>
       </c>
-      <c r="H47" s="80">
+      <c r="H47" s="69">
         <v>68000</v>
       </c>
-      <c r="I47" s="80">
+      <c r="I47" s="69">
         <v>129000</v>
       </c>
-      <c r="J47" s="67">
+      <c r="J47" s="56">
         <v>371000</v>
       </c>
-      <c r="K47" s="81">
+      <c r="K47" s="70">
         <v>16000</v>
       </c>
-      <c r="L47" s="80">
-        <v>0</v>
-      </c>
-      <c r="M47" s="80">
+      <c r="L47" s="69">
+        <v>0</v>
+      </c>
+      <c r="M47" s="69">
         <v>3000</v>
       </c>
-      <c r="N47" s="80">
+      <c r="N47" s="69">
         <v>40000</v>
       </c>
-      <c r="O47" s="80">
+      <c r="O47" s="69">
         <v>14000</v>
       </c>
-      <c r="P47" s="80">
+      <c r="P47" s="69">
         <v>13000</v>
       </c>
-      <c r="Q47" s="80">
+      <c r="Q47" s="69">
         <v>47000</v>
       </c>
-      <c r="R47" s="69">
+      <c r="R47" s="58">
         <v>133000</v>
       </c>
-      <c r="S47" s="89">
+      <c r="S47" s="78">
         <v>504000</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="52" t="s">
+      <c r="A48" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="59"/>
-      <c r="C48" s="82">
+      <c r="B48" s="48"/>
+      <c r="C48" s="71">
         <v>837000</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="71">
         <v>211000</v>
       </c>
-      <c r="E48" s="82">
+      <c r="E48" s="71">
         <v>337000</v>
       </c>
-      <c r="F48" s="82">
+      <c r="F48" s="71">
         <v>1209000</v>
       </c>
-      <c r="G48" s="82">
+      <c r="G48" s="71">
         <v>252000</v>
       </c>
-      <c r="H48" s="82">
+      <c r="H48" s="71">
         <v>1905000</v>
       </c>
-      <c r="I48" s="82">
+      <c r="I48" s="71">
         <v>368000</v>
       </c>
-      <c r="J48" s="83">
+      <c r="J48" s="72">
         <v>5119000</v>
       </c>
-      <c r="K48" s="84">
+      <c r="K48" s="73">
         <v>457000</v>
       </c>
-      <c r="L48" s="82">
+      <c r="L48" s="71">
         <v>5000</v>
       </c>
-      <c r="M48" s="82">
+      <c r="M48" s="71">
         <v>57000</v>
       </c>
-      <c r="N48" s="82">
+      <c r="N48" s="71">
         <v>1033000</v>
       </c>
-      <c r="O48" s="82">
+      <c r="O48" s="71">
         <v>61000</v>
       </c>
-      <c r="P48" s="82">
+      <c r="P48" s="71">
         <v>2103000</v>
       </c>
-      <c r="Q48" s="82">
+      <c r="Q48" s="71">
         <v>148000</v>
       </c>
-      <c r="R48" s="82">
+      <c r="R48" s="71">
         <v>3864000</v>
       </c>
-      <c r="S48" s="85">
+      <c r="S48" s="74">
         <v>8983000</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="1:1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="94" t="s">
-        <v>279</v>
+      <c r="A50" s="83" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A51" s="94" t="s">
-        <v>280</v>
+      <c r="A51" s="83" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5007,10 +4915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,39 +4932,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="6" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -5064,99 +4972,99 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>122</v>
+      <c r="E4" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>123</v>
+      <c r="E6" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -5164,19 +5072,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="6" t="s">
         <v>92</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -5184,19 +5092,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="6" t="s">
         <v>97</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -5204,79 +5112,79 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>124</v>
+      <c r="E10" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>282</v>
+      <c r="E11" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>274</v>
+      <c r="D12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="6" t="s">
         <v>92</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -5284,19 +5192,19 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="6" t="s">
         <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -5304,653 +5212,583 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>274</v>
+      <c r="E15" s="6" t="s">
+        <v>271</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>124</v>
+      <c r="E16" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="6" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="11" t="s">
+    <row r="19" spans="1:6" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E24" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="19" t="s">
+      <c r="C32" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D32" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="20" t="s">
+      <c r="E32" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D30" s="20" t="s">
+      <c r="E33" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="20" t="s">
+      <c r="E38" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="20" t="s">
+      <c r="E39" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="20" t="s">
+      <c r="E41" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>182</v>
+      <c r="E42" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>195</v>
+      <c r="A43" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>66</v>
+        <v>187</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>188</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="F43" s="20" t="s">
         <v>190</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -5972,30 +5810,30 @@
     <hyperlink ref="F17" r:id="rId15"/>
     <hyperlink ref="F18" r:id="rId16"/>
     <hyperlink ref="F19" r:id="rId17"/>
-    <hyperlink ref="F22" r:id="rId18"/>
-    <hyperlink ref="F23" r:id="rId19"/>
-    <hyperlink ref="F24" r:id="rId20"/>
-    <hyperlink ref="F25" r:id="rId21"/>
-    <hyperlink ref="F26" r:id="rId22"/>
-    <hyperlink ref="F27" r:id="rId23"/>
-    <hyperlink ref="F28" r:id="rId24"/>
-    <hyperlink ref="F29" r:id="rId25"/>
-    <hyperlink ref="F30" r:id="rId26"/>
-    <hyperlink ref="F31" r:id="rId27"/>
-    <hyperlink ref="F32" r:id="rId28"/>
-    <hyperlink ref="F33" r:id="rId29"/>
-    <hyperlink ref="F34" r:id="rId30"/>
-    <hyperlink ref="F35" r:id="rId31"/>
-    <hyperlink ref="F36" r:id="rId32"/>
-    <hyperlink ref="F37" r:id="rId33"/>
-    <hyperlink ref="F38" r:id="rId34"/>
-    <hyperlink ref="F39" r:id="rId35"/>
-    <hyperlink ref="F42" r:id="rId36"/>
-    <hyperlink ref="F43" r:id="rId37"/>
-    <hyperlink ref="F44" r:id="rId38"/>
-    <hyperlink ref="F45" r:id="rId39"/>
-    <hyperlink ref="F46" r:id="rId40"/>
-    <hyperlink ref="F48" r:id="rId41"/>
+    <hyperlink ref="F20" r:id="rId18"/>
+    <hyperlink ref="F21" r:id="rId19"/>
+    <hyperlink ref="F22" r:id="rId20"/>
+    <hyperlink ref="F23" r:id="rId21"/>
+    <hyperlink ref="F24" r:id="rId22"/>
+    <hyperlink ref="F25" r:id="rId23"/>
+    <hyperlink ref="F26" r:id="rId24"/>
+    <hyperlink ref="F27" r:id="rId25"/>
+    <hyperlink ref="F28" r:id="rId26"/>
+    <hyperlink ref="F29" r:id="rId27"/>
+    <hyperlink ref="F30" r:id="rId28"/>
+    <hyperlink ref="F31" r:id="rId29"/>
+    <hyperlink ref="F32" r:id="rId30"/>
+    <hyperlink ref="F33" r:id="rId31"/>
+    <hyperlink ref="F34" r:id="rId32"/>
+    <hyperlink ref="F35" r:id="rId33"/>
+    <hyperlink ref="F36" r:id="rId34"/>
+    <hyperlink ref="F37" r:id="rId35"/>
+    <hyperlink ref="F38" r:id="rId36"/>
+    <hyperlink ref="F39" r:id="rId37"/>
+    <hyperlink ref="F40" r:id="rId38"/>
+    <hyperlink ref="F41" r:id="rId39"/>
+    <hyperlink ref="F42" r:id="rId40"/>
+    <hyperlink ref="F43" r:id="rId41"/>
     <hyperlink ref="F15" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6018,254 +5856,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="22" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="C3" s="24" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" s="38" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37" t="s">
+      <c r="B8" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="C9" s="27" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="38" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="C9" s="38" t="s">
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="37" t="s">
+      <c r="B11" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="C11" s="38" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37" t="s">
+      <c r="B13" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="37" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="38" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37" t="s">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37" t="s">
+      <c r="B17" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37" t="s">
+      <c r="C17" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="37" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="C17" s="38" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37" t="s">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C21" s="27" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37" t="s">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C22" s="27" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="37" t="s">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C23" s="27" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37" t="s">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37" t="s">
+      <c r="C25" s="27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37" t="s">
+      <c r="C26" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="C24" s="38" t="s">
+      <c r="C27" s="27" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>
